--- a/Documentos/Diccionario EDT.xlsx
+++ b/Documentos/Diccionario EDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB68E91-E54F-4F02-ADFF-DC6E8BFD95B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C3EA2-D15B-4F4D-8305-A76B2010081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="6624" windowWidth="2388" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>Diccionario EDT</t>
   </si>
@@ -166,12 +166,6 @@
     <t>El sistema debe permitir eliminar imágenes siempre y cuando hayan imágenes para eliminar</t>
   </si>
   <si>
-    <t>Listado de tipos de comida</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe permitir al usuario-restaurante seleccionar el tipo de comida que ofrece su restaurante mediante una lista.</t>
-  </si>
-  <si>
     <t>Sección de comentarios</t>
   </si>
   <si>
@@ -190,27 +184,12 @@
     <t xml:space="preserve"> El sistema debe que un usuario-comensal califique un restaurante entre 0 y 5 estrellas. </t>
   </si>
   <si>
-    <t>Comentario y puntuación de restaurante</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe permitir escribir un comentario y simultáneamente elegir de 0 a 5 estrellas por parte del usuario-comensal para opinar y calificar un restaurante.</t>
-  </si>
-  <si>
-    <t>Creación de opinión</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe guardar la opinión realizada por el usuario-comensal (comentario y/o calificación).</t>
-  </si>
-  <si>
     <t>Historial de reservas</t>
   </si>
   <si>
     <t>El sistema debe mostrar al usuario-restaurante un registro de reservas pasadas y actuales de su restaurante.</t>
   </si>
   <si>
-    <t xml:space="preserve">El sistema debe mostrar la calificación actual del restaurante cuando el usuario-restaurante inicie sesión </t>
-  </si>
-  <si>
     <t>Agregar mesas</t>
   </si>
   <si>
@@ -310,9 +289,6 @@
     <t>EDT-RT-07</t>
   </si>
   <si>
-    <t>EDT-RT-08</t>
-  </si>
-  <si>
     <t>EDT-RT-09</t>
   </si>
   <si>
@@ -322,18 +298,9 @@
     <t>EDT-RT-11</t>
   </si>
   <si>
-    <t>EDT-RT-12</t>
-  </si>
-  <si>
-    <t>EDT-RT-13</t>
-  </si>
-  <si>
     <t>EDT-RT-14</t>
   </si>
   <si>
-    <t>EDT-RT-15</t>
-  </si>
-  <si>
     <t>EDT-RT-16</t>
   </si>
   <si>
@@ -359,6 +326,15 @@
   </si>
   <si>
     <t>Prototipo Resvit</t>
+  </si>
+  <si>
+    <t>EDT-RT-17</t>
+  </si>
+  <si>
+    <t>Sección de puntuación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe tener una sección para puntuar un restaurante entre 0 y 5 estrellas. </t>
   </si>
 </sst>
 </file>
@@ -558,6 +534,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,14 +554,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,10 +875,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z980"/>
+  <dimension ref="A1:Z977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -913,18 +889,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="82.5" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:26" ht="22.8">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -949,18 +925,18 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="23.4">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="14.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -969,28 +945,28 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="6">
-        <v>43712</v>
+        <v>43757</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.4">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="14.4">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="7" t="s">
@@ -1007,8 +983,8 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="43.2">
-      <c r="A9" s="25" t="s">
-        <v>76</v>
+      <c r="A9" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
@@ -1021,8 +997,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="43.2">
-      <c r="A10" s="25" t="s">
-        <v>77</v>
+      <c r="A10" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>10</v>
@@ -1035,8 +1011,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="28.8">
-      <c r="A11" s="25" t="s">
-        <v>78</v>
+      <c r="A11" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>11</v>
@@ -1071,8 +1047,8 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="43.2">
-      <c r="A12" s="25" t="s">
-        <v>79</v>
+      <c r="A12" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -1107,8 +1083,8 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="57.6">
-      <c r="A13" s="25" t="s">
-        <v>80</v>
+      <c r="A13" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>21</v>
@@ -1143,8 +1119,8 @@
       <c r="Z13" s="10"/>
     </row>
     <row r="14" spans="1:26" ht="28.8">
-      <c r="A14" s="25" t="s">
-        <v>81</v>
+      <c r="A14" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>13</v>
@@ -1179,8 +1155,8 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="43.2">
-      <c r="A15" s="25" t="s">
-        <v>82</v>
+      <c r="A15" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>15</v>
@@ -1215,8 +1191,8 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="28.8">
-      <c r="A16" s="25" t="s">
-        <v>83</v>
+      <c r="A16" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
@@ -1251,8 +1227,8 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" spans="1:26" ht="57.6">
-      <c r="A17" s="25" t="s">
-        <v>84</v>
+      <c r="A17" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>17</v>
@@ -1287,8 +1263,8 @@
       <c r="Z17" s="10"/>
     </row>
     <row r="18" spans="1:26" ht="72">
-      <c r="A18" s="25" t="s">
-        <v>85</v>
+      <c r="A18" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>18</v>
@@ -1323,8 +1299,8 @@
       <c r="Z18" s="10"/>
     </row>
     <row r="19" spans="1:26" ht="57.6">
-      <c r="A19" s="24" t="s">
-        <v>86</v>
+      <c r="A19" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>31</v>
@@ -1359,8 +1335,8 @@
       <c r="Z19" s="10"/>
     </row>
     <row r="20" spans="1:26" ht="86.4">
-      <c r="A20" s="24" t="s">
-        <v>87</v>
+      <c r="A20" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>33</v>
@@ -1395,8 +1371,8 @@
       <c r="Z20" s="10"/>
     </row>
     <row r="21" spans="1:26" s="13" customFormat="1" ht="100.8">
-      <c r="A21" s="24" t="s">
-        <v>88</v>
+      <c r="A21" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>35</v>
@@ -1431,8 +1407,8 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" spans="1:26" s="13" customFormat="1" ht="72">
-      <c r="A22" s="24" t="s">
-        <v>89</v>
+      <c r="A22" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>37</v>
@@ -1467,8 +1443,8 @@
       <c r="Z22" s="10"/>
     </row>
     <row r="23" spans="1:26" s="13" customFormat="1" ht="72">
-      <c r="A23" s="24" t="s">
-        <v>90</v>
+      <c r="A23" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>39</v>
@@ -1503,8 +1479,8 @@
       <c r="Z23" s="10"/>
     </row>
     <row r="24" spans="1:26" s="13" customFormat="1" ht="43.2">
-      <c r="A24" s="24" t="s">
-        <v>91</v>
+      <c r="A24" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>41</v>
@@ -1539,8 +1515,8 @@
       <c r="Z24" s="10"/>
     </row>
     <row r="25" spans="1:26" ht="57.6">
-      <c r="A25" s="24" t="s">
-        <v>92</v>
+      <c r="A25" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>43</v>
@@ -1552,9 +1528,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="72">
-      <c r="A26" s="24" t="s">
-        <v>93</v>
+    <row r="26" spans="1:26" ht="57.6">
+      <c r="A26" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>45</v>
@@ -1566,9 +1542,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="57.6">
-      <c r="A27" s="24" t="s">
-        <v>94</v>
+    <row r="27" spans="1:26" ht="72">
+      <c r="A27" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>47</v>
@@ -1580,9 +1556,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="72">
-      <c r="A28" s="24" t="s">
-        <v>95</v>
+    <row r="28" spans="1:26" ht="57.6">
+      <c r="A28" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>49</v>
@@ -1595,186 +1571,162 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="57.6">
-      <c r="A29" s="24" t="s">
-        <v>96</v>
+      <c r="A29" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="86.4">
-      <c r="A30" s="24" t="s">
-        <v>97</v>
+    <row r="30" spans="1:26" ht="57.6">
+      <c r="A30" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="57.6">
-      <c r="A31" s="24" t="s">
-        <v>98</v>
+      <c r="A31" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="57.6">
-      <c r="A32" s="24" t="s">
-        <v>99</v>
+      <c r="A32" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="57.6">
-      <c r="A33" s="24" t="s">
-        <v>100</v>
+    <row r="33" spans="1:4" ht="43.2">
+      <c r="A33" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="57.6">
-      <c r="A34" s="24" t="s">
-        <v>101</v>
+    <row r="34" spans="1:4" ht="43.2">
+      <c r="A34" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="57.6">
-      <c r="A35" s="24" t="s">
-        <v>102</v>
+    <row r="35" spans="1:4" ht="43.2">
+      <c r="A35" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.2">
-      <c r="A36" s="24" t="s">
-        <v>103</v>
+    <row r="36" spans="1:4" ht="72">
+      <c r="A36" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="43.2">
-      <c r="A37" s="24" t="s">
-        <v>104</v>
+    <row r="37" spans="1:4" ht="100.8">
+      <c r="A37" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.2">
-      <c r="A38" s="24" t="s">
-        <v>105</v>
+      <c r="A38" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="72">
-      <c r="A39" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="100.8">
-      <c r="A40" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="43.2">
-      <c r="A41" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>19</v>
-      </c>
+    <row r="39" spans="1:4" ht="14.4">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.4">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.4">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" ht="14.4">
       <c r="A42" s="13"/>
@@ -7391,24 +7343,6 @@
       <c r="B977" s="13"/>
       <c r="C977" s="13"/>
       <c r="D977" s="13"/>
-    </row>
-    <row r="978" spans="1:4" ht="14.4">
-      <c r="A978" s="13"/>
-      <c r="B978" s="13"/>
-      <c r="C978" s="13"/>
-      <c r="D978" s="13"/>
-    </row>
-    <row r="979" spans="1:4" ht="14.4">
-      <c r="A979" s="13"/>
-      <c r="B979" s="13"/>
-      <c r="C979" s="13"/>
-      <c r="D979" s="13"/>
-    </row>
-    <row r="980" spans="1:4" ht="14.4">
-      <c r="A980" s="13"/>
-      <c r="B980" s="13"/>
-      <c r="C980" s="13"/>
-      <c r="D980" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Documentos/Diccionario EDT.xlsx
+++ b/Documentos/Diccionario EDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C3EA2-D15B-4F4D-8305-A76B2010081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA39A2A-BBCB-44CB-9A32-9D8BA7AFCC55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3168" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>Diccionario EDT</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>FECHA REVISIÓN</t>
-  </si>
-  <si>
-    <t>DEDT-01</t>
   </si>
   <si>
     <t>Código</t>
@@ -124,24 +121,6 @@
     <t>Documento donde se consignan los riesgos del módulo Restaurante y la manera de prepararse para los mismos.</t>
   </si>
   <si>
-    <t>Identificación de ubicación</t>
-  </si>
-  <si>
-    <t>El sistema debe tener un listado de ciudades que se desplegará en la ventana de inicio de la aplicacion</t>
-  </si>
-  <si>
-    <t>Listado de ciudades</t>
-  </si>
-  <si>
-    <t>El sistema debe desplegar un listado de restaurantes disponibles para esa ubicación de los cuales el usuario-comensal podrá escoger.</t>
-  </si>
-  <si>
-    <t>Listado de restaurantes</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir que cada restaurante tenga la opción de estar activo o inactivo, esto determinará si el restaurante aparece en la lista que visualiza el usuario-comensal</t>
-  </si>
-  <si>
     <t>Visualizar información restaurante</t>
   </si>
   <si>
@@ -268,15 +247,6 @@
     <t>EDT-DOC-0109</t>
   </si>
   <si>
-    <t>EDT-RT-01</t>
-  </si>
-  <si>
-    <t>EDT-RT-02</t>
-  </si>
-  <si>
-    <t>EDT-RT-03</t>
-  </si>
-  <si>
     <t>EDT-RT-04</t>
   </si>
   <si>
@@ -335,6 +305,18 @@
   </si>
   <si>
     <t xml:space="preserve"> El sistema debe tener una sección para puntuar un restaurante entre 0 y 5 estrellas. </t>
+  </si>
+  <si>
+    <t>EDT-RT-18</t>
+  </si>
+  <si>
+    <t>Visualizar restaurante</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-comensal pueda visualizar la información del restaurante seleccionad.</t>
+  </si>
+  <si>
+    <t>DEDT-03</t>
   </si>
 </sst>
 </file>
@@ -503,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -538,6 +520,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,10 +858,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z977"/>
+  <dimension ref="A1:Z978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -889,18 +872,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="82.5" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:26" ht="22.8">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -925,18 +908,18 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="23.4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:26" ht="14.4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -945,83 +928,83 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17"/>
+      <c r="A5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="6">
-        <v>43757</v>
+        <v>43759</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:26" ht="14.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="43.2">
       <c r="A9" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="43.2">
       <c r="A10" s="15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="28.8">
       <c r="A11" s="15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1048,16 +1031,16 @@
     </row>
     <row r="12" spans="1:26" ht="43.2">
       <c r="A12" s="15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1084,16 +1067,16 @@
     </row>
     <row r="13" spans="1:26" ht="57.6">
       <c r="A13" s="15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1120,16 +1103,16 @@
     </row>
     <row r="14" spans="1:26" ht="28.8">
       <c r="A14" s="15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1156,16 +1139,16 @@
     </row>
     <row r="15" spans="1:26" ht="43.2">
       <c r="A15" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1192,16 +1175,16 @@
     </row>
     <row r="16" spans="1:26" ht="28.8">
       <c r="A16" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1228,16 +1211,16 @@
     </row>
     <row r="17" spans="1:26" ht="57.6">
       <c r="A17" s="15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1264,16 +1247,16 @@
     </row>
     <row r="18" spans="1:26" ht="72">
       <c r="A18" s="15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1298,18 +1281,18 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="1:26" ht="57.6">
+    <row r="19" spans="1:26" ht="72">
       <c r="A19" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1334,18 +1317,18 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26" ht="86.4">
+    <row r="20" spans="1:26" ht="72">
       <c r="A20" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1370,18 +1353,18 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" s="13" customFormat="1" ht="100.8">
+    <row r="21" spans="1:26" s="13" customFormat="1" ht="43.2">
       <c r="A21" s="14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -1406,18 +1389,18 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" s="13" customFormat="1" ht="72">
+    <row r="22" spans="1:26" s="13" customFormat="1" ht="57.6">
       <c r="A22" s="14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1442,18 +1425,18 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" s="13" customFormat="1" ht="72">
+    <row r="23" spans="1:26" s="13" customFormat="1" ht="57.6">
       <c r="A23" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -1478,18 +1461,18 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" s="13" customFormat="1" ht="43.2">
+    <row r="24" spans="1:26" s="13" customFormat="1" ht="72">
       <c r="A24" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1516,199 +1499,183 @@
     </row>
     <row r="25" spans="1:26" ht="57.6">
       <c r="A25" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="57.6">
       <c r="A26" s="14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="57.6">
+      <c r="A27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="72">
-      <c r="A27" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="57.6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="16" customFormat="1" ht="57.6">
       <c r="A28" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="57.6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="16" customFormat="1" ht="72">
       <c r="A29" s="14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="57.6">
       <c r="A30" s="14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="43.2">
+      <c r="A31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="43.2">
+      <c r="A32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="57.6">
-      <c r="A31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="57.6">
-      <c r="A32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="D32" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="43.2">
       <c r="A33" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="72">
+      <c r="A34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D34" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="100.8">
+      <c r="A35" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="43.2">
-      <c r="A34" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D35" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="43.2">
+      <c r="A36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="43.2">
-      <c r="A35" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="C36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="72">
-      <c r="A36" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="D36" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="100.8">
-      <c r="A37" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="43.2">
-      <c r="A38" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.4">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.4">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" ht="14.4">
       <c r="A39" s="13"/>
@@ -7332,18 +7299,9 @@
       <c r="C975" s="13"/>
       <c r="D975" s="13"/>
     </row>
-    <row r="976" spans="1:4" ht="14.4">
-      <c r="A976" s="13"/>
-      <c r="B976" s="13"/>
-      <c r="C976" s="13"/>
-      <c r="D976" s="13"/>
-    </row>
-    <row r="977" spans="1:4" ht="14.4">
-      <c r="A977" s="13"/>
-      <c r="B977" s="13"/>
-      <c r="C977" s="13"/>
-      <c r="D977" s="13"/>
-    </row>
+    <row r="976" spans="1:4" ht="14.4"/>
+    <row r="977" ht="14.4"/>
+    <row r="978" ht="14.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A5:B5"/>

--- a/Documentos/Diccionario EDT.xlsx
+++ b/Documentos/Diccionario EDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA39A2A-BBCB-44CB-9A32-9D8BA7AFCC55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8883FA7-7F5F-4BF2-AA95-9CE0B98F9AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="3168" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>Diccionario EDT</t>
   </si>
@@ -193,30 +193,6 @@
     <t xml:space="preserve">El sistema debe desplegar la vista del usuario-restaurante cuando este inicie sesión. </t>
   </si>
   <si>
-    <t>Vista usuarios-administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema debe desplegar la vista del usuario-admin cuando este inicie sesión. </t>
-  </si>
-  <si>
-    <t>Creación de usuarios restaurante</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la creacion  de un nuevo usuario restaurante o cliente por parte de un usuario administrador</t>
-  </si>
-  <si>
-    <t>Creación de usuarios administrador</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la creacion y parametrizacion de un nuevo usuario administrador de sistema para permitir el crecimiento en la administracion del sistema a manera general</t>
-  </si>
-  <si>
-    <t>Perfil usuario-admin</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar el perfil del usuario-admin cuando este inicia sesión</t>
-  </si>
-  <si>
     <t>EDT-DOC-01</t>
   </si>
   <si>
@@ -283,18 +259,6 @@
     <t>EDT-AD-03</t>
   </si>
   <si>
-    <t>EDT-AD-04</t>
-  </si>
-  <si>
-    <t>EDT-AD-05</t>
-  </si>
-  <si>
-    <t>EDT-AD-06</t>
-  </si>
-  <si>
-    <t>EDT-AD-11</t>
-  </si>
-  <si>
     <t>Prototipo Resvit</t>
   </si>
   <si>
@@ -317,6 +281,33 @@
   </si>
   <si>
     <t>DEDT-03</t>
+  </si>
+  <si>
+    <t>EDT-RT-19</t>
+  </si>
+  <si>
+    <t>Visualizar imágenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir visualizar las imágenes de su restaurante. </t>
+  </si>
+  <si>
+    <t>Listado de ciudades</t>
+  </si>
+  <si>
+    <t>El sistema debe desplegar un listado de restaurantes disponibles para esa ubicación de los cuales el usuario-comensal podrá escoger.</t>
+  </si>
+  <si>
+    <t>Listado de restaurantes</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir que cada restaurante tenga la opción de estar activo o inactivo, esto determinará si el restaurante aparece en la lista que visualiza el usuario-comensal.</t>
+  </si>
+  <si>
+    <t>EDT-RT-02</t>
+  </si>
+  <si>
+    <t>EDT-RT-03</t>
   </si>
 </sst>
 </file>
@@ -485,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -520,6 +511,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,10 +850,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z978"/>
+  <dimension ref="A1:Z975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -872,18 +864,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="82.5" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:26" ht="22.8">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -908,18 +900,18 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="23.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="18"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:26" ht="14.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -928,28 +920,28 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.4">
-      <c r="A5" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="18"/>
+      <c r="A5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>43759</v>
+        <v>43767</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="14.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="7" t="s">
@@ -967,7 +959,7 @@
     </row>
     <row r="9" spans="1:26" ht="43.2">
       <c r="A9" s="15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -981,7 +973,7 @@
     </row>
     <row r="10" spans="1:26" ht="43.2">
       <c r="A10" s="15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
@@ -995,7 +987,7 @@
     </row>
     <row r="11" spans="1:26" ht="28.8">
       <c r="A11" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
@@ -1031,7 +1023,7 @@
     </row>
     <row r="12" spans="1:26" ht="43.2">
       <c r="A12" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>11</v>
@@ -1067,7 +1059,7 @@
     </row>
     <row r="13" spans="1:26" ht="57.6">
       <c r="A13" s="15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
@@ -1103,7 +1095,7 @@
     </row>
     <row r="14" spans="1:26" ht="28.8">
       <c r="A14" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>12</v>
@@ -1139,7 +1131,7 @@
     </row>
     <row r="15" spans="1:26" ht="43.2">
       <c r="A15" s="15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>14</v>
@@ -1175,7 +1167,7 @@
     </row>
     <row r="16" spans="1:26" ht="28.8">
       <c r="A16" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>15</v>
@@ -1211,7 +1203,7 @@
     </row>
     <row r="17" spans="1:26" ht="57.6">
       <c r="A17" s="15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>16</v>
@@ -1247,7 +1239,7 @@
     </row>
     <row r="18" spans="1:26" ht="72">
       <c r="A18" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>17</v>
@@ -1281,15 +1273,15 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
     </row>
-    <row r="19" spans="1:26" ht="72">
+    <row r="19" spans="1:26" ht="86.4">
       <c r="A19" s="14" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>18</v>
@@ -1317,15 +1309,15 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
     </row>
-    <row r="20" spans="1:26" ht="72">
+    <row r="20" spans="1:26" ht="100.8">
       <c r="A20" s="14" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>18</v>
@@ -1353,15 +1345,15 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" s="13" customFormat="1" ht="43.2">
+    <row r="21" spans="1:26" s="13" customFormat="1" ht="72">
       <c r="A21" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>18</v>
@@ -1389,15 +1381,15 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" s="13" customFormat="1" ht="57.6">
+    <row r="22" spans="1:26" s="13" customFormat="1" ht="72">
       <c r="A22" s="14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>18</v>
@@ -1425,15 +1417,15 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" s="13" customFormat="1" ht="57.6">
+    <row r="23" spans="1:26" s="13" customFormat="1" ht="43.2">
       <c r="A23" s="14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>18</v>
@@ -1461,15 +1453,15 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" s="13" customFormat="1" ht="72">
+    <row r="24" spans="1:26" s="13" customFormat="1" ht="57.6">
       <c r="A24" s="14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>18</v>
@@ -1499,27 +1491,27 @@
     </row>
     <row r="25" spans="1:26" ht="57.6">
       <c r="A25" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="57.6">
+    <row r="26" spans="1:26" ht="72">
       <c r="A26" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>18</v>
@@ -1527,13 +1519,13 @@
     </row>
     <row r="27" spans="1:26" ht="57.6">
       <c r="A27" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>18</v>
@@ -1541,55 +1533,55 @@
     </row>
     <row r="28" spans="1:26" s="16" customFormat="1" ht="57.6">
       <c r="A28" s="14" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="16" customFormat="1" ht="72">
+    <row r="29" spans="1:26" s="16" customFormat="1" ht="57.6">
       <c r="A29" s="14" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="57.6">
+    <row r="30" spans="1:26" s="17" customFormat="1" ht="57.6">
       <c r="A30" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="43.2">
+    <row r="31" spans="1:26" ht="72">
       <c r="A31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>18</v>
@@ -1597,73 +1589,65 @@
     </row>
     <row r="32" spans="1:26" ht="43.2">
       <c r="A32" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.2">
+    <row r="33" spans="1:4" ht="57.6">
       <c r="A33" s="14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="72">
+    <row r="34" spans="1:4" ht="43.2">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="100.8">
+    <row r="35" spans="1:4" ht="43.2">
       <c r="A35" s="14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.2">
-      <c r="A36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>18</v>
-      </c>
+    <row r="36" spans="1:4" ht="14.4">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" ht="14.4">
       <c r="A37" s="13"/>
@@ -7285,23 +7269,13 @@
       <c r="A973" s="13"/>
       <c r="B973" s="13"/>
       <c r="C973" s="13"/>
-      <c r="D973" s="13"/>
     </row>
     <row r="974" spans="1:4" ht="14.4">
       <c r="A974" s="13"/>
       <c r="B974" s="13"/>
       <c r="C974" s="13"/>
-      <c r="D974" s="13"/>
-    </row>
-    <row r="975" spans="1:4" ht="14.4">
-      <c r="A975" s="13"/>
-      <c r="B975" s="13"/>
-      <c r="C975" s="13"/>
-      <c r="D975" s="13"/>
-    </row>
-    <row r="976" spans="1:4" ht="14.4"/>
-    <row r="977" ht="14.4"/>
-    <row r="978" ht="14.4"/>
+    </row>
+    <row r="975" spans="1:4" ht="14.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A5:B5"/>

--- a/Documentos/Diccionario EDT.xlsx
+++ b/Documentos/Diccionario EDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8883FA7-7F5F-4BF2-AA95-9CE0B98F9AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EA58E-A69D-4C4B-88C4-D347006CCDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2820" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="4212" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>Diccionario EDT</t>
   </si>
@@ -169,9 +169,6 @@
     <t>El sistema debe mostrar al usuario-restaurante un registro de reservas pasadas y actuales de su restaurante.</t>
   </si>
   <si>
-    <t>Agregar mesas</t>
-  </si>
-  <si>
     <t>El sistema debe permitir al usuario-restaurante agregar una mesa  con su cantidad de sillas a su restaurante</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>EDT-AD-03</t>
   </si>
   <si>
-    <t>Prototipo Resvit</t>
-  </si>
-  <si>
     <t>EDT-RT-17</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t xml:space="preserve"> El sistema debe poseer una interfaz donde el usuario-comensal pueda visualizar la información del restaurante seleccionad.</t>
   </si>
   <si>
-    <t>DEDT-03</t>
-  </si>
-  <si>
     <t>EDT-RT-19</t>
   </si>
   <si>
@@ -308,6 +299,42 @@
   </si>
   <si>
     <t>EDT-RT-03</t>
+  </si>
+  <si>
+    <t>Visualizar mesas</t>
+  </si>
+  <si>
+    <t>EDT-RT-20</t>
+  </si>
+  <si>
+    <t>Visualizar galería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir al usuario-comensal visualizar las imágenes de un restaurante. </t>
+  </si>
+  <si>
+    <t>EDT-RT-21</t>
+  </si>
+  <si>
+    <t>EDT-RT-22</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Punutación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe permitir ver los comentarios hechos por los comensales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema debe permitir ver la puntación hecha por los comensales.</t>
+  </si>
+  <si>
+    <t>Resvit</t>
+  </si>
+  <si>
+    <t>DEDT-05</t>
   </si>
 </sst>
 </file>
@@ -852,8 +879,8 @@
   </sheetPr>
   <dimension ref="A1:Z975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -865,7 +892,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="82.5" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -921,14 +948,14 @@
     </row>
     <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="18" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
-        <v>43767</v>
+        <v>43773</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.4">
@@ -959,7 +986,7 @@
     </row>
     <row r="9" spans="1:26" ht="43.2">
       <c r="A9" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -973,7 +1000,7 @@
     </row>
     <row r="10" spans="1:26" ht="43.2">
       <c r="A10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
@@ -987,7 +1014,7 @@
     </row>
     <row r="11" spans="1:26" ht="28.8">
       <c r="A11" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>10</v>
@@ -1023,7 +1050,7 @@
     </row>
     <row r="12" spans="1:26" ht="43.2">
       <c r="A12" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>11</v>
@@ -1059,7 +1086,7 @@
     </row>
     <row r="13" spans="1:26" ht="57.6">
       <c r="A13" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
@@ -1095,7 +1122,7 @@
     </row>
     <row r="14" spans="1:26" ht="28.8">
       <c r="A14" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>12</v>
@@ -1131,7 +1158,7 @@
     </row>
     <row r="15" spans="1:26" ht="43.2">
       <c r="A15" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>14</v>
@@ -1167,7 +1194,7 @@
     </row>
     <row r="16" spans="1:26" ht="28.8">
       <c r="A16" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>15</v>
@@ -1203,7 +1230,7 @@
     </row>
     <row r="17" spans="1:26" ht="57.6">
       <c r="A17" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>16</v>
@@ -1239,7 +1266,7 @@
     </row>
     <row r="18" spans="1:26" ht="72">
       <c r="A18" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>17</v>
@@ -1275,13 +1302,13 @@
     </row>
     <row r="19" spans="1:26" ht="86.4">
       <c r="A19" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>18</v>
@@ -1311,13 +1338,13 @@
     </row>
     <row r="20" spans="1:26" ht="100.8">
       <c r="A20" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>18</v>
@@ -1347,7 +1374,7 @@
     </row>
     <row r="21" spans="1:26" s="13" customFormat="1" ht="72">
       <c r="A21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>30</v>
@@ -1383,7 +1410,7 @@
     </row>
     <row r="22" spans="1:26" s="13" customFormat="1" ht="72">
       <c r="A22" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>32</v>
@@ -1419,7 +1446,7 @@
     </row>
     <row r="23" spans="1:26" s="13" customFormat="1" ht="43.2">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>34</v>
@@ -1455,7 +1482,7 @@
     </row>
     <row r="24" spans="1:26" s="13" customFormat="1" ht="57.6">
       <c r="A24" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>36</v>
@@ -1491,7 +1518,7 @@
     </row>
     <row r="25" spans="1:26" ht="57.6">
       <c r="A25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>38</v>
@@ -1505,7 +1532,7 @@
     </row>
     <row r="26" spans="1:26" ht="72">
       <c r="A26" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>40</v>
@@ -1519,7 +1546,7 @@
     </row>
     <row r="27" spans="1:26" ht="57.6">
       <c r="A27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>42</v>
@@ -1533,7 +1560,7 @@
     </row>
     <row r="28" spans="1:26" s="16" customFormat="1" ht="57.6">
       <c r="A28" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>44</v>
@@ -1547,13 +1574,13 @@
     </row>
     <row r="29" spans="1:26" s="16" customFormat="1" ht="57.6">
       <c r="A29" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>18</v>
@@ -1561,13 +1588,13 @@
     </row>
     <row r="30" spans="1:26" s="17" customFormat="1" ht="57.6">
       <c r="A30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>18</v>
@@ -1575,13 +1602,13 @@
     </row>
     <row r="31" spans="1:26" ht="72">
       <c r="A31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>18</v>
@@ -1589,13 +1616,13 @@
     </row>
     <row r="32" spans="1:26" ht="43.2">
       <c r="A32" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>18</v>
@@ -1603,13 +1630,13 @@
     </row>
     <row r="33" spans="1:4" ht="57.6">
       <c r="A33" s="14" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>18</v>
@@ -1617,13 +1644,13 @@
     </row>
     <row r="34" spans="1:4" ht="43.2">
       <c r="A34" s="14" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>18</v>
@@ -1631,35 +1658,59 @@
     </row>
     <row r="35" spans="1:4" ht="43.2">
       <c r="A35" s="14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+    <row r="36" spans="1:4" ht="57.6">
+      <c r="A36" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="43.2">
+      <c r="A37" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="43.2">
+      <c r="A38" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="14.4">
       <c r="A39" s="13"/>
